--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
@@ -49,45 +52,42 @@
     <t>illegal</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
     <t>fucking</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
@@ -109,13 +109,16 @@
     <t>great</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>important</t>
@@ -124,49 +127,34 @@
     <t>love</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>first</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>twitter</t>
+    <t>media</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>media</t>
-  </si>
-  <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>watching</t>
   </si>
   <si>
     <t>’</t>
@@ -533,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,7 +532,7 @@
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -605,10 +593,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -652,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -676,13 +664,13 @@
         <v>29</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9326923076923077</v>
+        <v>0.9</v>
       </c>
       <c r="C5">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K5">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="L5">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.8942307692307693</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K6">
-        <v>0.7543859649122807</v>
+        <v>0.68</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8939393939393939</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="C7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K7">
-        <v>0.7466666666666667</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L7">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="M7">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K8">
-        <v>0.7241379310344828</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="L8">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M8">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -894,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -902,13 +890,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6857142857142857</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -920,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K9">
-        <v>0.5666666666666667</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="M9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -944,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +964,13 @@
         <v>35</v>
       </c>
       <c r="K10">
-        <v>0.5555555555555556</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -994,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1002,37 +990,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.65</v>
+        <v>0.675</v>
       </c>
       <c r="C11">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>13</v>
-      </c>
-      <c r="D11">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K11">
-        <v>0.5151515151515151</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L11">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1044,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1052,13 +1040,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6376811594202898</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C12">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1070,31 +1058,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K12">
-        <v>0.4166666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L12">
+        <v>16</v>
+      </c>
+      <c r="M12">
+        <v>16</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>20</v>
-      </c>
-      <c r="M12">
-        <v>20</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1102,13 +1090,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.625</v>
+        <v>0.65</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1120,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K13">
-        <v>0.3333333333333333</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1144,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1152,13 +1140,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5957446808510638</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1170,19 +1158,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K14">
-        <v>0.2550091074681239</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L14">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1194,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>818</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1202,13 +1190,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5652173913043478</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1220,19 +1208,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K15">
-        <v>0.2372881355932203</v>
+        <v>0.2641165755919854</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>290</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>290</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1244,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>45</v>
+        <v>808</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1252,13 +1240,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5416666666666666</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1270,19 +1258,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K16">
-        <v>0.2</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1294,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1302,13 +1290,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5357142857142857</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1320,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K17">
-        <v>0.2</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="L17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1344,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1352,13 +1340,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4615384615384616</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1370,19 +1358,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K18">
-        <v>0.1411764705882353</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1394,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1426,13 +1414,13 @@
         <v>44</v>
       </c>
       <c r="K19">
-        <v>0.08759124087591241</v>
+        <v>0.07078313253012049</v>
       </c>
       <c r="L19">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="M19">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1444,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>125</v>
+        <v>617</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1452,13 +1440,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2051282051282051</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1470,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K20">
-        <v>0.05185185185185185</v>
+        <v>0.04629629629629629</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1494,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1502,22 +1490,22 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.05351170568561873</v>
+        <v>0.04713804713804714</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>16</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>283</v>
@@ -1526,13 +1514,13 @@
         <v>46</v>
       </c>
       <c r="K21">
-        <v>0.04969879518072289</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1544,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>631</v>
+        <v>588</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1552,13 +1540,13 @@
         <v>47</v>
       </c>
       <c r="K22">
-        <v>0.04707792207792208</v>
+        <v>0.03585147247119078</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1570,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>587</v>
+        <v>753</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1578,13 +1566,13 @@
         <v>48</v>
       </c>
       <c r="K23">
-        <v>0.04240282685512368</v>
+        <v>0.02534562211981567</v>
       </c>
       <c r="L23">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="M23">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1596,111 +1584,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24">
-        <v>0.04126984126984127</v>
-      </c>
-      <c r="L24">
-        <v>13</v>
-      </c>
-      <c r="M24">
-        <v>13</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25">
-        <v>0.03812316715542522</v>
-      </c>
-      <c r="L25">
-        <v>13</v>
-      </c>
-      <c r="M25">
-        <v>13</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26">
-        <v>0.03585147247119078</v>
-      </c>
-      <c r="L26">
-        <v>28</v>
-      </c>
-      <c r="M26">
-        <v>28</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27">
-        <v>0.02304147465437788</v>
-      </c>
-      <c r="L27">
-        <v>40</v>
-      </c>
-      <c r="M27">
-        <v>40</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>1696</v>
+        <v>1692</v>
       </c>
     </row>
   </sheetData>
